--- a/angular/src/assets/sampleFiles/business/ImportSalesVehicleInvoiceDocSedingDate.xlsx
+++ b/angular/src/assets/sampleFiles/business/ImportSalesVehicleInvoiceDocSedingDate.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_member\Documents\tmss_sale\angular\src\assets\sampleFiles\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmss\angular\src\assets\sampleFiles\business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="10890"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ImportDocSendingDate" sheetId="1" r:id="rId1"/>
     <sheet name="Example" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,6 +25,71 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>S_member</author>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>S_member:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Định dạng dd/MM/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nhập theo định dạng
+DD/MM/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nhập theo định dạng
+DD/MM/YYYY</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S_member</author>
@@ -59,40 +124,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Frame No</t>
-  </si>
-  <si>
     <t>Dealer</t>
   </si>
   <si>
-    <t>Doc Seding Date</t>
-  </si>
-  <si>
     <t>Import Doc Seding Date</t>
   </si>
   <si>
-    <t>RL4B23F33N5161640</t>
-  </si>
-  <si>
-    <t>RL4B23F35N5161686</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>20/10/2022</t>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>FrameNo</t>
+  </si>
+  <si>
+    <t>Engine No</t>
+  </si>
+  <si>
+    <t>Frame No Right</t>
+  </si>
+  <si>
+    <t>Arival Port</t>
+  </si>
+  <si>
+    <t>Doc delivery actual</t>
+  </si>
+  <si>
+    <t>Sending Date</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>4N3026330</t>
+  </si>
+  <si>
+    <t>2NRX933155</t>
+  </si>
+  <si>
+    <t>TODN</t>
+  </si>
+  <si>
+    <t>6330</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>3N3025539</t>
+  </si>
+  <si>
+    <t>2NRX930844</t>
+  </si>
+  <si>
+    <t>THP</t>
+  </si>
+  <si>
+    <t>5539</t>
+  </si>
+  <si>
+    <t>Sending Vendor</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +228,23 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +257,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -159,22 +287,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,44 +635,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -501,74 +714,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>44837</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44837</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44837</v>
+      </c>
+      <c r="I4" s="5">
+        <v>44837</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>